--- a/allCharts_clean.xlsx
+++ b/allCharts_clean.xlsx
@@ -9,20 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="460" windowWidth="29280" windowHeight="20540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="4320" yWindow="460" windowWidth="29280" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="fig1" sheetId="1" r:id="rId1"/>
-    <sheet name="fig2-v1" sheetId="2" r:id="rId2"/>
-    <sheet name="fig3" sheetId="3" r:id="rId3"/>
-    <sheet name="fig4-v1" sheetId="4" r:id="rId4"/>
-    <sheet name="fig5-v1" sheetId="6" r:id="rId5"/>
-    <sheet name="fig6-v1" sheetId="5" r:id="rId6"/>
-    <sheet name="fig7-v1" sheetId="7" r:id="rId7"/>
+    <sheet name="fig1-v2" sheetId="2" r:id="rId1"/>
+    <sheet name="fig2-v2" sheetId="1" r:id="rId2"/>
+    <sheet name="fig3-v2" sheetId="3" r:id="rId3"/>
+    <sheet name="fig4-v2" sheetId="4" r:id="rId4"/>
+    <sheet name="fig5-v2" sheetId="6" r:id="rId5"/>
+    <sheet name="fig6-v2" sheetId="5" r:id="rId6"/>
+    <sheet name="fig7-v2" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -47,12 +50,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,627 +94,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0133333333333333"/>
-          <c:y val="0.237037037037037"/>
-          <c:w val="0.986666666666667"/>
-          <c:h val="0.592592592592593"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Households!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="1696D2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:srgbClr val="1696D2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Households!$A$11:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2012-2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Households!$B$11:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.542854</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.816796</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.094033</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.155967</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Households!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inner Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FDBF11"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:srgbClr val="FDBF11"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Households!$A$11:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2012-2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Households!$C$11:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.256731</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.432307</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.603625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.643999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Households!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Households!$A$11:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2012-2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Households!$B$11:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.542854</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.816796</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.094033</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.155967</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76CB-4D6C-9D67-DB58A07FC246}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Households!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inner Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Households!$A$11:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2012-2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Households!$C$11:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.256731</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.432307</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.603625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.643999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-76CB-4D6C-9D67-DB58A07FC246}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1973904992"/>
-        <c:axId val="-1973902144"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1973904992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="000000">
-                <a:lumMod val="100000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Lato"/>
-                <a:ea typeface="Lato"/>
-                <a:cs typeface="Lato"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1973902144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1973902144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="DDDDDD"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Lato"/>
-                <a:ea typeface="Lato"/>
-                <a:cs typeface="Lato"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1973904992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lato"/>
-                <a:ea typeface="Lato"/>
-                <a:cs typeface="Lato"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lato"/>
-                <a:ea typeface="Lato"/>
-                <a:cs typeface="Lato"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.275702187226597"/>
-          <c:y val="0.0991735537190082"/>
-          <c:w val="0.53489343832021"/>
-          <c:h val="0.0613112513828333"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Lato"/>
-              <a:ea typeface="Lato"/>
-              <a:cs typeface="Lato"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Lato"/>
-          <a:ea typeface="Lato"/>
-          <a:cs typeface="Lato"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -898,11 +287,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-2007202592"/>
-        <c:axId val="-2007168048"/>
+        <c:axId val="2134337680"/>
+        <c:axId val="2134260800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2007202592"/>
+        <c:axId val="2134337680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007168048"/>
+        <c:crossAx val="2134260800"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -949,7 +338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2007168048"/>
+        <c:axId val="2134260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1003,7 +392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007202592"/>
+        <c:crossAx val="2134337680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50000.0"/>
@@ -1091,7 +480,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1112,26 +501,26 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.106491935483871"/>
-          <c:y val="0.223150380158254"/>
-          <c:w val="0.876819437388875"/>
-          <c:h val="0.546782100640368"/>
+          <c:x val="0.0137105148716358"/>
+          <c:y val="0.141478894323218"/>
+          <c:w val="0.970715621431173"/>
+          <c:h val="0.618509771985651"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[2]permits-innerregion-annual'!$C$2</c:f>
+              <c:f>'[3]Population and housing units'!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Single-family</c:v>
+                  <c:v>Population</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1146,135 +535,100 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Lato"/>
+                    <a:ea typeface="Lato"/>
+                    <a:cs typeface="Lato"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'[2]permits-innerregion-annual'!$B$3:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+            <c:strRef>
+              <c:f>'[3]Population and housing units'!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2000.0</c:v>
+                  <c:v>1990–2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2001.0</c:v>
+                  <c:v>2000–2010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2010–2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[2]permits-innerregion-annual'!$C$3:$C$20</c:f>
+              <c:f>'[3]Population and housing units'!$B$21:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16000.0</c:v>
+                  <c:v>0.128897434032702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14082.0</c:v>
+                  <c:v>0.127665651052732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13894.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14185.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13523.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12682.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9067.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7524.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5140.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4542.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5052.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6005.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6671.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8079.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7416.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7153.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7482.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7249.0</c:v>
+                  <c:v>0.0702944337396143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6340-41F9-A296-28ABD1F9027C}"/>
+              <c16:uniqueId val="{00000000-8E30-4190-9367-5C6403761BA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1283,18 +637,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[2]permits-innerregion-annual'!$D$2</c:f>
+              <c:f>'[3]Population and housing units'!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Multi-family</c:v>
+                  <c:v>Housing units</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FDBF11"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1302,135 +656,100 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Lato"/>
+                    <a:ea typeface="Lato"/>
+                    <a:cs typeface="Lato"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'[2]permits-innerregion-annual'!$B$3:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+            <c:strRef>
+              <c:f>'[3]Population and housing units'!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2000.0</c:v>
+                  <c:v>1990–2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2001.0</c:v>
+                  <c:v>2000–2010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2010–2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[2]permits-innerregion-annual'!$D$3:$D$20</c:f>
+              <c:f>'[3]Population and housing units'!$C$21:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7406.0</c:v>
+                  <c:v>0.119630865349543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8428.0</c:v>
+                  <c:v>0.139346129862655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8650.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5496.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9803.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9090.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8531.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6943.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3688.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2504.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2619.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8967.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9989.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8638.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11718.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8883.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10233.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11890.0</c:v>
+                  <c:v>0.027266481307687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6340-41F9-A296-28ABD1F9027C}"/>
+              <c16:uniqueId val="{00000001-8E30-4190-9367-5C6403761BA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1442,13 +761,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="20"/>
-        <c:overlap val="100"/>
-        <c:axId val="-2059391472"/>
-        <c:axId val="-2037030672"/>
+        <c:gapWidth val="50"/>
+        <c:axId val="-2091488496"/>
+        <c:axId val="-2091508256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2059391472"/>
+        <c:axId val="-2091488496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,51 +805,557 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2037030672"/>
+        <c:crossAx val="-2091508256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="2"/>
-        <c:tickMarkSkip val="1000"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2037030672"/>
+        <c:axId val="-2091508256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091488496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.339105326371044"/>
+          <c:y val="0.0634365755005862"/>
+          <c:w val="0.341684212719207"/>
+          <c:h val="0.0458163491412281"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Lato"/>
+              <a:ea typeface="Lato"/>
+              <a:cs typeface="Lato"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Lato"/>
+          <a:ea typeface="Lato"/>
+          <a:cs typeface="Lato"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0151551472732575"/>
+          <c:y val="0.138850212387995"/>
+          <c:w val="0.971386118401866"/>
+          <c:h val="0.478646176272638"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>All</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1696D2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Lato"/>
+                    <a:ea typeface="Lato"/>
+                    <a:cs typeface="Lato"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[4]tenure_inc_1999_2016!$A$70:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Under $50,000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>$50,000 to   $74,999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>$75,000 to   $99,999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>$100,000 to   $149,999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>$150,000 or more</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[4]tenure_inc_1999_2016!$H$70:$H$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.174688248218768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0400295843221243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0410589544348565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.190509653080849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.343594016802131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35F4-43A8-BB7F-4C67DFD41F7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Renters</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FDBF11"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Lato"/>
+                    <a:ea typeface="Lato"/>
+                    <a:cs typeface="Lato"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[4]tenure_inc_1999_2016!$A$70:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Under $50,000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>$50,000 to   $74,999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>$75,000 to   $99,999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>$100,000 to   $149,999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>$150,000 or more</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[4]tenure_inc_1999_2016!$I$70:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.140987708590461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0796672861125009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0761020207439199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.576610642244044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.594443679833271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35F4-43A8-BB7F-4C67DFD41F7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Owners</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Lato"/>
+                    <a:ea typeface="Lato"/>
+                    <a:cs typeface="Lato"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[4]tenure_inc_1999_2016!$A$70:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Under $50,000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>$50,000 to   $74,999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>$75,000 to   $99,999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>$100,000 to   $149,999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>$150,000 or more</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[4]tenure_inc_1999_2016!$J$70:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.248242587501614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.000875907024774338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.123522054138248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0567901726361495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.303112030561866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35F4-43A8-BB7F-4C67DFD41F7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="-2090329968"/>
+        <c:axId val="-2090090320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2090329968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="DDDDDD"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="000000">
+                <a:lumMod val="100000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1550,7 +1374,25 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059391472"/>
+        <c:crossAx val="-2090090320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2090090320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090329968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1568,10 +1410,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.328467583185166"/>
-          <c:y val="0.0832014548549981"/>
-          <c:w val="0.352655584718577"/>
-          <c:h val="0.0546830079900946"/>
+          <c:x val="0.335573879327227"/>
+          <c:y val="0.0775765352856402"/>
+          <c:w val="0.327088187768231"/>
+          <c:h val="0.0603336125046877"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9461,675 +9303,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[2]sale-prices-county-monthly'!$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>National</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="sq">
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:lumMod val="100000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[2]sale-prices-county-monthly'!$N$15:$N$222</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="208"/>
-                <c:pt idx="0">
-                  <c:v>122400.833333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123059.166666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123884.166666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124588.333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>125237.108333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>125808.8975</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>126475.564166666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127165.8975</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127758.8975</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>128342.230833333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>128750.564166666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129358.8975</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130025.564166666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>130783.8975</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>131417.230833333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>132216.730833333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>132976.289166666</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>133791.166666666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>134616.166666666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>135449.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>136324.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>137199.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>138249.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>139141.166666666</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>140141.166666666</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>140966.166666666</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>141799.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>142591.666666666</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>143516.666666666</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>144433.333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>145517.916666666</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>146767.916666666</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>148101.25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>149256.26</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>150289.21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>151414.21</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>152551.71</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>153643.376666666</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>154768.376666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>156018.376666666</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>157493.376666666</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>159154.4875</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>160578.2375</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>161669.904166666</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>162836.570833333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>164214.894166666</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>165640.2775</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>167181.944166666</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>168586.123333333</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>170244.456666666</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>171827.79</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>173486.123333333</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>174927.79</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>176266.679166666</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>177850.012499999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>179641.679166666</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>181391.679166666</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>182983.345833333</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>184483.345833333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>186066.679166666</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>187483.333333333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>188491.666666666</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>189491.666666666</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>190500.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>191291.666666666</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>192041.666666666</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>192533.25</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>192658.25</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>192574.916666666</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>192424.083333333</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>192424.083333333</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>192235.541666666</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>192443.875</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>192568.875</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>192735.541666666</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>192568.875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>192193.875</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>191735.541666666</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>191327.291666666</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>190827.291666666</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>190160.625</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>189269.791666666</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>188019.791666666</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>186885.416666666</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>185534.316666666</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>183992.65</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>182305.15</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>180805.15</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>179388.483333333</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>177975.733333333</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>176538.233333333</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>175204.9</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>173788.233333333</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>172496.566666666</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>171079.9</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>169112.050833333</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>166963.150833333</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>164721.484166666</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>162444.505833333</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>159944.505833333</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>157693.6725</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>155814.755833333</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>153918.9225</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>152335.589166666</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>151061.749166666</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>149895.0825</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>149228.415833333</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>148852.514999999</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>148539.181666666</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>148614.181666666</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>148620.326666666</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>148870.326666666</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>149350.8125</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>149534.145833333</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>149834.145833333</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>149417.479166666</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>149107.985833333</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>148691.319166666</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>148274.6525</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>147774.6525</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>147379.110833333</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>146712.444166666</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>146170.7775</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>145504.110833333</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>144774.458333333</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>144174.458333333</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>143457.791666666</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>143449.458333333</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>143157.791666666</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>142907.791666666</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>142491.125</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>142157.791666666</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>141783.333333333</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>141650.0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>141650.0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>142066.666666666</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>142806.5</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>143561.5625</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>144363.47</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>145144.199166666</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>146008.449166666</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>147091.7825</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>148008.449166666</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>148925.115833333</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>150191.7825</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>151325.115833333</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>152575.115833333</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>153908.449166666</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>155085.2825</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>156413.553333333</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>158028.3125</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>159589.25</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>160975.0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>162141.666666666</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>163358.569166666</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>164291.641666666</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>165316.641666666</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>166316.641666666</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>167316.641666666</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>168066.641666666</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>168649.975</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>169233.308333333</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>169724.975</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>170008.308333333</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>170466.641666666</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>170958.308333333</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>171413.801666666</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>172064.0625</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>172605.729166666</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>173189.0625</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>174136.979166666</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>175178.645833333</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>176323.274166666</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>177356.6175</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>178198.284166666</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>179156.6175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>180064.950833333</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>180906.6175</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>181725.888333333</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>182692.555</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>183709.221666666</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>184792.555</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>185344.638333333</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>186019.638333333</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>186688.135</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>187571.458333333</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>188571.458333333</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>189571.458333333</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>190413.125</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>191524.855833333</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>192866.5225</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>194316.5225</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>195247.7725</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>195997.7725</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>197081.105833333</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>198114.439166666</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>199341.83</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>200425.163333333</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>201508.496666666</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>202620.996666666</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>203870.996666666</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>204842.599166666</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>205800.9325</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>206717.599166666</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>207915.515833333</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>209248.849166666</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>210932.1825</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>212590.515833333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-30CE-4C5F-B7A1-0650F0971D99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -10139,11 +9312,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2007804832"/>
-        <c:axId val="-2007131776"/>
+        <c:axId val="2137019536"/>
+        <c:axId val="2092634720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2007804832"/>
+        <c:axId val="2137019536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10182,7 +9355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007131776"/>
+        <c:crossAx val="2092634720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -10193,7 +9366,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2007131776"/>
+        <c:axId val="2092634720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10246,7 +9419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007804832"/>
+        <c:crossAx val="2137019536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10316,10 +9489,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.236581891467029"/>
-          <c:y val="0.147048243706227"/>
-          <c:w val="0.672648375060228"/>
-          <c:h val="0.712153706047854"/>
+          <c:x val="0.21071168571155"/>
+          <c:y val="0.116638192729965"/>
+          <c:w val="0.78928831428845"/>
+          <c:h val="0.665465588781801"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -10399,60 +9572,60 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[2]rent-over-time'!$Y$3:$AD$3</c:f>
+              <c:f>'[5]rent-over-time'!$Y$3:$AD$3</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Loudoun</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>District of Columbia</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Montgomery</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arlington</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Fairfax</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Loudoun</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Prince George’s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Montgomery</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Arlington</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[2]rent-over-time'!$Y$4:$AD$4</c:f>
+              <c:f>'[5]rent-over-time'!$Y$7:$AD$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.184827586206897</c:v>
+                  <c:v>0.113410091790493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.134510869565217</c:v>
+                  <c:v>0.0830752054447945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0986249407302039</c:v>
+                  <c:v>0.0516976409114809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.086908077994429</c:v>
+                  <c:v>0.0400531362023064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0848256361922714</c:v>
+                  <c:v>0.0386383941444813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0828448612739351</c:v>
+                  <c:v>0.00104284708964289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3185-46EC-97C6-CADECA2C179A}"/>
+              <c16:uniqueId val="{00000000-BAF1-44D3-8A9A-3370BF39DDAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10465,11 +9638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-2037028800"/>
-        <c:axId val="-2086560192"/>
+        <c:axId val="-2037377984"/>
+        <c:axId val="-2065161792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2037028800"/>
+        <c:axId val="-2037377984"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10508,7 +9681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086560192"/>
+        <c:crossAx val="-2065161792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10516,17 +9689,19 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086560192"/>
+        <c:axId val="-2065161792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.15"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2037028800"/>
+        <c:crossAx val="-2037377984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10706,7 +9881,7 @@
             <c:numRef>
               <c:f>'[1]Housing Cost Burden'!$B$37:$C$37</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.4790041258</c:v>
@@ -10823,7 +9998,7 @@
             <c:numRef>
               <c:f>'[1]Housing Cost Burden'!$B$38:$C$38</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.2261117203</c:v>
@@ -10849,11 +10024,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-1979580224"/>
-        <c:axId val="-2033710704"/>
+        <c:axId val="2142656704"/>
+        <c:axId val="-2119872112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1979580224"/>
+        <c:axId val="2142656704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10892,7 +10067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033710704"/>
+        <c:crossAx val="-2119872112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10900,7 +10075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2033710704"/>
+        <c:axId val="-2119872112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10910,7 +10085,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1979580224"/>
+        <c:crossAx val="2142656704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11442,11 +10617,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1982061440"/>
-        <c:axId val="-2007947856"/>
+        <c:axId val="2142637616"/>
+        <c:axId val="-2119272896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1982061440"/>
+        <c:axId val="2142637616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11485,7 +10660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007947856"/>
+        <c:crossAx val="-2119272896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11493,7 +10668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2007947856"/>
+        <c:axId val="-2119272896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11546,7 +10721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1982061440"/>
+        <c:crossAx val="2142637616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11914,7 +11089,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12022,11 +11197,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12037,11 +11207,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -12073,9 +11238,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12933,7 +12095,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13137,23 +12299,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -13258,8 +12419,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -13391,20 +12552,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -15471,22 +14631,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>187511</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>169583</xdr:rowOff>
+      <xdr:rowOff>153397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>267944</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>199217</xdr:rowOff>
+      <xdr:colOff>186267</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D11316C9-3F37-488C-B54A-E00385569066}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295C7950-9F95-4B6C-A6A7-684A41C1D0B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15513,22 +14673,28 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.73224</cdr:x>
-      <cdr:y>0.88037</cdr:y>
+      <cdr:x>0.71358</cdr:x>
+      <cdr:y>0.82151</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99891</cdr:x>
-      <cdr:y>0.93593</cdr:y>
+      <cdr:x>0.98025</cdr:x>
+      <cdr:y>0.87707</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="LogoBox"/>
+        <cdr:cNvPr id="5" name="LogoBox">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F062305-F3A4-4028-9236-AC36EDAA2D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5027112" y="5443358"/>
-          <a:ext cx="1830760" cy="343502"/>
+          <a:off x="4893710" y="5035758"/>
+          <a:ext cx="1828823" cy="340575"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -15544,13 +14710,13 @@
               <a:solidFill>
                 <a:srgbClr val="1696D2"/>
               </a:solidFill>
-              <a:latin typeface="Lato Black" charset="0"/>
+              <a:latin typeface="Lato Black" panose="020F0A02020204030203" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>U R B A N </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="800">
-              <a:latin typeface="Lato Black" charset="0"/>
+              <a:latin typeface="Lato Black" panose="020F0A02020204030203" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> I N S T I T U T E</a:t>
           </a:r>
@@ -15560,22 +14726,28 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.87037</cdr:y>
+      <cdr:x>0.0158</cdr:x>
+      <cdr:y>0.8099</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76333</cdr:x>
+      <cdr:x>0.75185</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="6" name="SourceBox"/>
+        <cdr:cNvPr id="6" name="SourceBox">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{119512B3-11FE-4DDC-93D3-D76333029FDC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="4321998"/>
-          <a:ext cx="4362450" cy="643702"/>
+          <a:off x="108356" y="4964579"/>
+          <a:ext cx="5047844" cy="1165288"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -15587,42 +14759,109 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
-              <a:latin typeface="Lato" charset="0"/>
+              <a:effectLst/>
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Source</a:t>
+            <a:t>Source:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:effectLst/>
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Urban Institute analysis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> of the Zillow Rent Index. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:effectLst/>
+            <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Notes: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
-            <a:t>: </a:t>
+            <a:t>Median</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
-            <a:t>Urban Institute analysis of the Zillow Rent Index. </a:t>
+            <a:t> rents have been adjusted for inflation on an annual basis. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:effectLst/>
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
-            <a:t>
-Note:</a:t>
+            <a:t>The Zillow Rent</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
-            <a:t>The Zillow Rent Index is a smooth, seasonally adjusted measure of the median estimated market rate rent across a given region and housing type. </a:t>
+            <a:t>Index is a smooth, seasonally</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
+            </a:rPr>
+            <a:t>adjusted measure of the median estimated market rate rent across a given region and housing type. </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
@@ -15635,18 +14874,24 @@
       <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.84111</cdr:x>
+      <cdr:x>0.76487</cdr:x>
       <cdr:y>0.09259</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="7" name="TitleBox"/>
+        <cdr:cNvPr id="7" name="TitleBox">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC54B34D-BC4E-4795-9DDB-CEAAAA96E963}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="4806950" cy="317500"/>
+          <a:ext cx="5504334" cy="317500"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -15658,10 +14903,19 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1800" b="1">
-              <a:latin typeface="Lato" charset="0"/>
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Change in Estimated Median Rent, 2010–18 </a:t>
+            <a:t>Increase</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> in Median Rent by County, 2011–2017</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -15689,7 +14943,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ADC0189-EBE6-48A7-8266-1BB3371011FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADC0189-EBE6-48A7-8266-1BB3371011FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15728,7 +14982,7 @@
         <cdr:cNvPr id="3" name="LogoBox">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16909492-D4E3-42E3-B5B0-89372D8BA5C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16909492-D4E3-42E3-B5B0-89372D8BA5C9}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -15961,7 +15215,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86E25009-715A-4EF8-9E0C-34C4B23F0E7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E25009-715A-4EF8-9E0C-34C4B23F0E7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16000,7 +15254,7 @@
         <cdr:cNvPr id="7" name="YAxisLabelBox">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF9CB6A-32E3-443A-9FAA-379E682D7FA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BF9CB6A-32E3-443A-9FAA-379E682D7FA4}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -16265,12 +15519,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.73333</cdr:x>
-      <cdr:y>0.89888</cdr:y>
+      <cdr:x>0.72785</cdr:x>
+      <cdr:y>0.83296</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.95444</cdr:y>
+      <cdr:x>0.99452</cdr:x>
+      <cdr:y>0.88851</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -16279,289 +15533,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4191000" y="4166776"/>
-          <a:ext cx="1524000" cy="257528"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="1696D2"/>
-              </a:solidFill>
-              <a:latin typeface="Lato Black" charset="0"/>
-            </a:rPr>
-            <a:t>U R B A N </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800">
-              <a:latin typeface="Lato Black" charset="0"/>
-            </a:rPr>
-            <a:t> I N S T I T U T E</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.90685</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.76222</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="SourceBox"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="4203700"/>
-          <a:ext cx="4356100" cy="431800"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:latin typeface="Lato" charset="0"/>
-            </a:rPr>
-            <a:t>Source</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Lato" charset="0"/>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Neighborhood</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Change Database, ACS 5 Year Estimates</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.55556</cdr:x>
-      <cdr:y>0.09259</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TitleBox"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="0"/>
-          <a:ext cx="3175000" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="horz" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1">
-              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Total</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
-              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Number of Households</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
-            <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.16296</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.55556</cdr:x>
-      <cdr:y>0.22963</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="7" name="YAxisLabelBox"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="558800"/>
-          <a:ext cx="3175000" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="horz" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="1">
-              <a:latin typeface="Lato Italic" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Households</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
-              <a:latin typeface="Lato Italic" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> (in Millions)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" i="1">
-            <a:latin typeface="Lato Italic" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>84667</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{295C7950-9F95-4B6C-A6A7-684A41C1D0B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.73032</cdr:x>
-      <cdr:y>0.8523</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99699</cdr:x>
-      <cdr:y>0.90785</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="LogoBox"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5008531" y="5223611"/>
-          <a:ext cx="1828800" cy="340493"/>
+          <a:off x="4991601" y="5105102"/>
+          <a:ext cx="1828822" cy="340459"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -16638,27 +15611,33 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>Source</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>Urban Institute analysis of the Quarterly Census of Employment and Wages.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>
 Note:</a:t>
@@ -16666,26 +15645,33 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>Inner-region = the District of Columbia, Montgomery and Prince George’s Counties in Maryland, and Arlington, Fairfax, and Loudoun Counties and Alexandria, Fairfax, and Falls Church cities in Virginia; MSA = Washington, DC, metropolitan statistical area.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US">
               <a:effectLst/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Lato" charset="0"/>
+            <a:ea typeface="Lato" charset="0"/>
+            <a:cs typeface="Lato" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -16731,27 +15717,27 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>137459</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>46313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276412</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B455170B-63E6-43EC-9E2E-0189A631202D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{677E5228-9B78-4BCF-8F4B-26B452CD0328}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16774,16 +15760,16 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.73333</cdr:x>
-      <cdr:y>0.88519</cdr:y>
+      <cdr:x>0.73211</cdr:x>
+      <cdr:y>0.82754</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.94074</cdr:y>
+      <cdr:x>0.99878</cdr:x>
+      <cdr:y>0.8831</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -16792,8 +15778,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5765800" y="3035300"/>
-          <a:ext cx="1524000" cy="190500"/>
+          <a:off x="5060544" y="5105299"/>
+          <a:ext cx="1843276" cy="342735"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -16826,10 +15812,10 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0</cdr:x>
-      <cdr:y>0.87037</cdr:y>
+      <cdr:y>0.74514</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76411</cdr:x>
+      <cdr:x>0.78363</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -16839,8 +15825,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="4498857"/>
-          <a:ext cx="4813300" cy="670043"/>
+          <a:off x="0" y="4596944"/>
+          <a:ext cx="5416674" cy="1572273"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -16853,30 +15839,33 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>Source</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
-            <a:t>Census</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Building Permits Survey and Urban Institute.</a:t>
+            <a:t>Urban Institute analysis of the Neighborhood Change Database and the American Community Survey. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t>
 Note:</a:t>
@@ -16884,17 +15873,24 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Lato" charset="0"/>
+              <a:ea typeface="Lato" charset="0"/>
+              <a:cs typeface="Lato" charset="0"/>
             </a:rPr>
-            <a:t>Single-family is defined as 1-4 unit permits.</a:t>
+            <a:t>Inner region = the District of Columbia, Montgomery and Prince George's counties in Maryland, and Arlington, Fairfax, and Loudoun counties and Alexandria, Fairfax, and Falls Church cities in Virginia.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Lato" charset="0"/>
+            <a:ea typeface="Lato" charset="0"/>
+            <a:cs typeface="Lato" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -16906,8 +15902,8 @@
       <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77419</cdr:x>
-      <cdr:y>0.09259</cdr:y>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.12233</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -16917,7 +15913,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="4876800" cy="478602"/>
+          <a:ext cx="5708276" cy="573746"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -16931,8 +15927,286 @@
             <a:rPr lang="en-US" sz="1800" b="1">
               <a:latin typeface="Lato" charset="0"/>
             </a:rPr>
-            <a:t>Annual Building Permits, 2000-2017</a:t>
+            <a:t>Growth in Population and Housing Units in the Inner Region </a:t>
           </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>702733</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93134</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36867</cdr:x>
+      <cdr:y>0.70234</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70525</cdr:x>
+      <cdr:y>0.74753</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="XAxisBox"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2528356" y="4305270"/>
+          <a:ext cx="2308260" cy="276999"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="horz" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" i="1">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Household income (2016 dollars)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71975</cdr:x>
+      <cdr:y>0.75107</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98642</cdr:x>
+      <cdr:y>0.80663</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="LogoBox"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4936045" y="4603959"/>
+          <a:ext cx="1828823" cy="340575"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="1696D2"/>
+              </a:solidFill>
+              <a:latin typeface="Lato Black" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>U R B A N </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Lato Black" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> I N S T I T U T E</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.68508</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="SourceBox"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="4199468"/>
+          <a:ext cx="5486399" cy="1930399"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="horz" rtlCol="0" anchor="b"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Source</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>: Urban Institute analysis of Census 2000 Summary File 3 data and the 2016 American Community Survey one-year estimates.</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Notes:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Adjustments for inflation have been made to the income groups in the Census 2000 data. Inner region = the District of Columbia, Montgomery and Prince George’s counties in Maryland, and Arlington, Fairfax, and Loudoun counties, and Alexandria city in Virginia. The cities of Fairfax and Falls Church, Virginia, have been excluded because of data availability. Number of households in each income range (in 2016): Under $50,000 = 405,000; $50,000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>74,999 = 299,000; $75,000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> to $</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>99,999 = 208,000; $100,000 to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>149,999 = 322,000; $150,000 or more = 492,000. </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9772</cdr:x>
+      <cdr:y>0.16282</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TitleBox"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="6148487" cy="694247"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="horz" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Change in Number of Households in the Inner Region,</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+              <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2000— 2016</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1800" b="0">
+            <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -16945,22 +16219,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>273673</xdr:colOff>
+      <xdr:colOff>239807</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>35858</xdr:rowOff>
+      <xdr:rowOff>179792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>491067</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61E9C04D-792F-45F6-8F63-68152FF7F152}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E9C04D-792F-45F6-8F63-68152FF7F152}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17705,109 +16979,6 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.78541</cdr:x>
-      <cdr:y>0.59495</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.86923</cdr:x>
-      <cdr:y>0.63307</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="18" name="TextBox 17"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5384171" y="3645749"/>
-          <a:ext cx="574597" cy="233645"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:latin typeface="Lato" charset="0"/>
-              <a:ea typeface="Lato" charset="0"/>
-              <a:cs typeface="Lato" charset="0"/>
-            </a:rPr>
-            <a:t>National</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -17816,22 +16987,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123638</xdr:colOff>
+      <xdr:colOff>194733</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>62378</xdr:rowOff>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>351118</xdr:colOff>
+      <xdr:colOff>414866</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>149412</xdr:rowOff>
+      <xdr:rowOff>135466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C53AF60-F6E4-4AE6-A892-2451162D0FCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3C33C60-B5C1-41B2-B5BD-857AAF317841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18120,322 +17291,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="3">
-        <row r="2">
-          <cell r="H2" t="str">
-            <v>Inner Region</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>MSA</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>1990</v>
-          </cell>
-          <cell r="H3">
-            <v>2.275347</v>
-          </cell>
-          <cell r="I3">
-            <v>2.0251839999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>1991</v>
-          </cell>
-          <cell r="H4">
-            <v>2.2090580000000002</v>
-          </cell>
-          <cell r="I4">
-            <v>1.9610529999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>1992</v>
-          </cell>
-          <cell r="H5">
-            <v>2.2123110000000001</v>
-          </cell>
-          <cell r="I5">
-            <v>1.957282</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>1993</v>
-          </cell>
-          <cell r="H6">
-            <v>2.2517839999999998</v>
-          </cell>
-          <cell r="I6">
-            <v>1.9837610000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>1994</v>
-          </cell>
-          <cell r="H7">
-            <v>2.288964</v>
-          </cell>
-          <cell r="I7">
-            <v>2.0068869999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>1995</v>
-          </cell>
-          <cell r="H8">
-            <v>2.3170639999999998</v>
-          </cell>
-          <cell r="I8">
-            <v>2.0231340000000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>1996</v>
-          </cell>
-          <cell r="H9">
-            <v>2.338822</v>
-          </cell>
-          <cell r="I9">
-            <v>2.0335160000000001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>1997</v>
-          </cell>
-          <cell r="H10">
-            <v>2.4002110000000001</v>
-          </cell>
-          <cell r="I10">
-            <v>2.082741</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11">
-            <v>1998</v>
-          </cell>
-          <cell r="H11">
-            <v>2.4451580000000002</v>
-          </cell>
-          <cell r="I11">
-            <v>2.1143749999999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>1999</v>
-          </cell>
-          <cell r="H12">
-            <v>2.5278049999999999</v>
-          </cell>
-          <cell r="I12">
-            <v>2.1822189999999999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>2000</v>
-          </cell>
-          <cell r="H13">
-            <v>2.6547640000000001</v>
-          </cell>
-          <cell r="I13">
-            <v>2.2932000000000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>2001</v>
-          </cell>
-          <cell r="H14">
-            <v>2.6841279999999998</v>
-          </cell>
-          <cell r="I14">
-            <v>2.3118919999999998</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>2002</v>
-          </cell>
-          <cell r="H15">
-            <v>2.6945809999999999</v>
-          </cell>
-          <cell r="I15">
-            <v>2.3087589999999998</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16">
-            <v>2003</v>
-          </cell>
-          <cell r="H16">
-            <v>2.7202989999999998</v>
-          </cell>
-          <cell r="I16">
-            <v>2.3231540000000002</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17">
-            <v>2004</v>
-          </cell>
-          <cell r="H17">
-            <v>2.7833830000000002</v>
-          </cell>
-          <cell r="I17">
-            <v>2.3650859999999998</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18">
-            <v>2005</v>
-          </cell>
-          <cell r="H18">
-            <v>2.8461479999999999</v>
-          </cell>
-          <cell r="I18">
-            <v>2.411619</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="G19">
-            <v>2006</v>
-          </cell>
-          <cell r="H19">
-            <v>2.886342</v>
-          </cell>
-          <cell r="I19">
-            <v>2.4393769999999999</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20">
-            <v>2007</v>
-          </cell>
-          <cell r="H20">
-            <v>2.9082020000000002</v>
-          </cell>
-          <cell r="I20">
-            <v>2.4565070000000002</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21">
-            <v>2008</v>
-          </cell>
-          <cell r="H21">
-            <v>2.9144209999999999</v>
-          </cell>
-          <cell r="I21">
-            <v>2.4650340000000002</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22">
-            <v>2009</v>
-          </cell>
-          <cell r="H22">
-            <v>2.855877</v>
-          </cell>
-          <cell r="I22">
-            <v>2.4193220000000002</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>2010</v>
-          </cell>
-          <cell r="H23">
-            <v>2.8708809999999998</v>
-          </cell>
-          <cell r="I23">
-            <v>2.431044</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>2011</v>
-          </cell>
-          <cell r="H24">
-            <v>2.9124189999999999</v>
-          </cell>
-          <cell r="I24">
-            <v>2.4658880000000001</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>2012</v>
-          </cell>
-          <cell r="H25">
-            <v>2.9459249999999999</v>
-          </cell>
-          <cell r="I25">
-            <v>2.488972</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26">
-            <v>2013</v>
-          </cell>
-          <cell r="H26">
-            <v>2.9629979999999998</v>
-          </cell>
-          <cell r="I26">
-            <v>2.4988899999999998</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="G27">
-            <v>2014</v>
-          </cell>
-          <cell r="H27">
-            <v>2.9759000000000002</v>
-          </cell>
-          <cell r="I27">
-            <v>2.5065339999999998</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="G28">
-            <v>2015</v>
-          </cell>
-          <cell r="H28">
-            <v>3.0288040000000001</v>
-          </cell>
-          <cell r="I28">
-            <v>2.5485259999999998</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="G29">
-            <v>2016</v>
-          </cell>
-          <cell r="H29">
-            <v>3.077191</v>
-          </cell>
-          <cell r="I29">
-            <v>2.5864129999999999</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="G30">
-            <v>2017</v>
-          </cell>
-          <cell r="H30">
-            <v>3.11538</v>
-          </cell>
-          <cell r="I30">
-            <v>2.620444</v>
-          </cell>
-        </row>
         <row r="32">
           <cell r="B32" t="str">
             <v>MSA</v>
@@ -24196,6 +23051,199 @@
           </cell>
           <cell r="AD4">
             <v>8.284486127393513E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Population and housing units"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Population</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Housing units</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>1990–2000</v>
+          </cell>
+          <cell r="B21">
+            <v>0.12889743403270182</v>
+          </cell>
+          <cell r="C21">
+            <v>0.11963086534954348</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>2000–2010</v>
+          </cell>
+          <cell r="B22">
+            <v>0.12766565105273209</v>
+          </cell>
+          <cell r="C22">
+            <v>0.1393461298626546</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>2010–2016</v>
+          </cell>
+          <cell r="B23">
+            <v>7.0294433739614304E-2</v>
+          </cell>
+          <cell r="C23">
+            <v>2.7266481307687052E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="tenure_inc_1999_2016"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Under $50,000</v>
+          </cell>
+          <cell r="H70">
+            <v>0.1746882482187683</v>
+          </cell>
+          <cell r="I70">
+            <v>0.14098770859046106</v>
+          </cell>
+          <cell r="J70">
+            <v>0.24824258750161443</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>$50,000 to   $74,999</v>
+          </cell>
+          <cell r="H71">
+            <v>4.0029584322124265E-2</v>
+          </cell>
+          <cell r="I71">
+            <v>7.9667286112500887E-2</v>
+          </cell>
+          <cell r="J71">
+            <v>-8.7590702477433871E-4</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>$75,000 to   $99,999</v>
+          </cell>
+          <cell r="H72">
+            <v>-4.1058954434856479E-2</v>
+          </cell>
+          <cell r="I72">
+            <v>7.610202074391989E-2</v>
+          </cell>
+          <cell r="J72">
+            <v>-0.12352205413824842</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>$100,000 to   $149,999</v>
+          </cell>
+          <cell r="H73">
+            <v>0.19050965308084916</v>
+          </cell>
+          <cell r="I73">
+            <v>0.57661064224404412</v>
+          </cell>
+          <cell r="J73">
+            <v>5.6790172636149522E-2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>$150,000 or more</v>
+          </cell>
+          <cell r="H74">
+            <v>0.34359401680213097</v>
+          </cell>
+          <cell r="I74">
+            <v>0.59444367983327107</v>
+          </cell>
+          <cell r="J74">
+            <v>0.3031120305618662</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="rent-over-time"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="Y3" t="str">
+            <v>Loudoun</v>
+          </cell>
+          <cell r="Z3" t="str">
+            <v>District of Columbia</v>
+          </cell>
+          <cell r="AA3" t="str">
+            <v>Montgomery</v>
+          </cell>
+          <cell r="AB3" t="str">
+            <v>Arlington</v>
+          </cell>
+          <cell r="AC3" t="str">
+            <v>Fairfax</v>
+          </cell>
+          <cell r="AD3" t="str">
+            <v>Prince George’s</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Y7">
+            <v>0.1134100917904927</v>
+          </cell>
+          <cell r="Z7">
+            <v>8.3075205444794548E-2</v>
+          </cell>
+          <cell r="AA7">
+            <v>5.1697640911480928E-2</v>
+          </cell>
+          <cell r="AB7">
+            <v>4.0053136202306418E-2</v>
+          </cell>
+          <cell r="AC7">
+            <v>3.8638394144481281E-2</v>
+          </cell>
+          <cell r="AD7">
+            <v>1.0428470896428951E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -24467,31 +23515,878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:D16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -24500,8 +24395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24513,14 +24408,378 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24531,7 +24790,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24543,14 +24802,697 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A11:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24558,14 +25500,378 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/allCharts_clean.xlsx
+++ b/allCharts_clean.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="460" windowWidth="29280" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4320" yWindow="460" windowWidth="29280" windowHeight="20540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="fig1-v2" sheetId="2" r:id="rId1"/>
@@ -843,7 +843,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.339105326371044"/>
           <c:y val="0.0634365755005862"/>
-          <c:w val="0.341684212719207"/>
+          <c:w val="0.343789688226397"/>
           <c:h val="0.0458163491412281"/>
         </c:manualLayout>
       </c:layout>
@@ -15112,7 +15112,7 @@
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Lato" panose="020F0502020204030203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Households are cost burdened if they pay more than 30 percent of their monthly income in housing costs and are severely cost burdened if they pay more than 50 percent. Inner-region = the District of Columbia, Montgomery and Prince George’s Counties in Maryland, and Arlington, Fairfax, and Loudoun Counties and Alexandria, Fairfax, and Falls Church cities in Virginia. </a:t>
+            <a:t>Households are cost burdened if they pay 30 percent or more of their monthly income in housing costs and are severely cost burdened if they pay 50 percent or more. Inner-region = the District of Columbia, Montgomery and Prince George’s Counties in Maryland, and Arlington, Fairfax, and Loudoun Counties and Alexandria, Fairfax, and Falls Church cities in Virginia. </a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -23949,7 +23949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -24393,14 +24393,447 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24787,14 +25220,378 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24804,8 +25601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A11:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
